--- a/modelagem/Resultados_2018 1ª abordagem/5. Maio/resultados.xlsx
+++ b/modelagem/Resultados_2018 1ª abordagem/5. Maio/resultados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,887 +436,720 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Modelo Individual Treino</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>ativos</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Modelo Individual Teste</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo por grupos Teste</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Modelo com a Média Teste</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0.1419427617672459</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ABEV3</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>2.133085206264161</v>
-      </c>
       <c r="C2" t="n">
-        <v>2.241773372910029</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.183243225220414</v>
+        <v>0.0629532345066708</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>0.2048083931003256</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>B3SA3</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.7713350942987489</v>
-      </c>
       <c r="C3" t="n">
-        <v>0.7326375773223295</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.8604370861438788</v>
+        <v>0.1552471392797094</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>0.2883308952301582</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>BBAS3</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1.179620713382562</v>
-      </c>
       <c r="C4" t="n">
-        <v>1.456236916265935</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.708516378165493</v>
+        <v>0.1639889386555464</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>0.2243259526768105</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>BBDC3</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>1.678818815677511</v>
-      </c>
       <c r="C5" t="n">
-        <v>2.111648622508865</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.094087903871958</v>
+        <v>0.1345212519700329</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>0.1879510504029522</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>BBDC4</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>1.491374712115515</v>
-      </c>
       <c r="C6" t="n">
-        <v>1.413096762647782</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.522723490709933</v>
+        <v>0.1747173748008413</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>0.16199046110162</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>BEEF3</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1.388118296935218</v>
-      </c>
       <c r="C7" t="n">
-        <v>1.280905636337777</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.165636664130525</v>
+        <v>0.1203278851981729</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>0.05382389186070458</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>BRAP4</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>1.120040596792121</v>
-      </c>
       <c r="C8" t="n">
-        <v>1.390030434272263</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.272045750624724</v>
+        <v>0.02883083001483298</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>0.2468992999432295</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>BRFS3</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.7535002257566823</v>
-      </c>
       <c r="C9" t="n">
-        <v>0.8692314198762432</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5638033718125274</v>
+        <v>0.1814791581470095</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>0.1278300197977891</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>BRKM5</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.7328259900794462</v>
-      </c>
       <c r="C10" t="n">
-        <v>0.7543537696784278</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.7743740399196999</v>
+        <v>0.08292436682257417</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>0.1669342387515015</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>CCRO3</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>8.165363852645307</v>
-      </c>
       <c r="C11" t="n">
-        <v>1.82072410628212</v>
-      </c>
-      <c r="D11" t="n">
-        <v>11.51943125978187</v>
+        <v>0.1452606239327255</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>0.2266828586969669</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>CIEL3</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0.6084450497211563</v>
-      </c>
       <c r="C12" t="n">
-        <v>0.7938151817102826</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5032156732269316</v>
+        <v>0.04524142527530234</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>0.1970410825795586</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>CMIG4</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>3.042999164104013</v>
-      </c>
       <c r="C13" t="n">
-        <v>1.964333751116005</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.158160776542327</v>
+        <v>0.09301861724579519</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>0.2592136411437456</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>CPFE3</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>1.364614668783628</v>
-      </c>
       <c r="C14" t="n">
-        <v>2.368827575454183</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.43123865509236</v>
+        <v>0.1721435253570868</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>0.166509483670296</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>CPLE6</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.5234661789650512</v>
-      </c>
       <c r="C15" t="n">
-        <v>0.4688248706709606</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.3571859862362945</v>
+        <v>0.09218666664003657</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>0.1695913377939266</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>CSAN3</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>4.506936076137889</v>
-      </c>
       <c r="C16" t="n">
-        <v>9.095686173173716</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.752122348793324</v>
+        <v>0.1078540404204431</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>0.2634793747224723</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>CSNA3</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.4205970221219895</v>
-      </c>
       <c r="C17" t="n">
-        <v>0.4706024461215668</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5262198139876719</v>
+        <v>0.1631633656892802</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>0.1704522493615885</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>CYRE3</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>1.052177061413139</v>
-      </c>
       <c r="C18" t="n">
-        <v>1.270509950629843</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1.632693807478121</v>
+        <v>0.1321322879940311</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>0.3161459513656608</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>EGIE3</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>2.579667703072236</v>
-      </c>
       <c r="C19" t="n">
-        <v>1.6655538392179</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.537466133906261</v>
+        <v>0.166125486409531</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>0.2483248126345014</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>ELET3</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>1.806593984160066</v>
-      </c>
       <c r="C20" t="n">
-        <v>1.971462131098858</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2.474493006326362</v>
+        <v>0.1637780791159949</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>0.234030514687753</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>ELET6</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>17.79311590163865</v>
-      </c>
       <c r="C21" t="n">
-        <v>14.94300601799467</v>
-      </c>
-      <c r="D21" t="n">
-        <v>12.80185369743608</v>
+        <v>0.1667056086515257</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>0.03073567086945529</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>EMBR3</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>2.333860688873633</v>
-      </c>
       <c r="C22" t="n">
-        <v>3.401160885489739</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.046935305193761</v>
+        <v>0.02094546985679899</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>0.2750460185572445</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>ENBR3</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>175342375403520.2</v>
-      </c>
       <c r="C23" t="n">
-        <v>203138564882431.8</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1049710676672512</v>
+        <v>0.1942741672470468</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>0.1992394641760818</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>ENEV3</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>1.996453576304918</v>
-      </c>
       <c r="C24" t="n">
-        <v>1.464515764943307</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1.047203536154243</v>
+        <v>0.129750587518148</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>0.33359316819331</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>ENGI11</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>1.369677804486523</v>
-      </c>
       <c r="C25" t="n">
-        <v>1.215569996006636</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8704469125613159</v>
+        <v>0.2096482228344138</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>0.16629235796405</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>EQTL3</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>1.415794288889997</v>
-      </c>
       <c r="C26" t="n">
-        <v>0.8989753671861909</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1.094702595702044</v>
+        <v>0.1132045658355426</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>0.2517119712788431</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>EZTC3</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>1.292114612570916</v>
-      </c>
       <c r="C27" t="n">
-        <v>1.260008989358991</v>
-      </c>
-      <c r="D27" t="n">
-        <v>2.774569124448883</v>
+        <v>0.176991753548171</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>0.06424045817575294</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>FLRY3</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>1.55963208336501</v>
-      </c>
       <c r="C28" t="n">
-        <v>7.44398016890843</v>
-      </c>
-      <c r="D28" t="n">
-        <v>4.880315093512885</v>
+        <v>0.08453079219573861</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>0.1182905553009316</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>GGBR4</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.8452533538343857</v>
-      </c>
       <c r="C29" t="n">
-        <v>0.8062182513116142</v>
-      </c>
-      <c r="D29" t="n">
-        <v>1.069564939897129</v>
+        <v>0.04034624590412281</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>0.0557604230730491</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>GOAU4</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>1.166065647285855</v>
-      </c>
       <c r="C30" t="n">
-        <v>0.9666919281376994</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.8774438862479507</v>
+        <v>0.04938116103500923</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>0.2268201588431907</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>GOLL4</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>2.035735429906697</v>
-      </c>
       <c r="C31" t="n">
-        <v>1.638425645260961</v>
-      </c>
-      <c r="D31" t="n">
-        <v>1.79910846951436</v>
+        <v>0.0584646943908764</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>0.1409932609689554</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>HYPE3</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.3450023542743</v>
-      </c>
       <c r="C32" t="n">
-        <v>0.2190221916690185</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.7357246466963248</v>
+        <v>0.09045424178415115</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>0.1532241998651414</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>ITSA4</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>3.431247810662326</v>
-      </c>
       <c r="C33" t="n">
-        <v>1.779860702799449</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2.86927145587564</v>
+        <v>0.02381328847845499</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>0.1583553968000731</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>ITUB4</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>1.06389853868042</v>
-      </c>
       <c r="C34" t="n">
-        <v>1.245813466546239</v>
-      </c>
-      <c r="D34" t="n">
-        <v>1.158942717036439</v>
+        <v>0.08364590462897964</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>0.3284322796962125</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>JBSS3</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2.226333960354384</v>
-      </c>
       <c r="C35" t="n">
-        <v>1.75470709655614</v>
-      </c>
-      <c r="D35" t="n">
-        <v>3.343481463788633</v>
+        <v>0.1711289773768171</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>0.1889063236527561</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>JHSF3</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>7.413272357927455</v>
-      </c>
       <c r="C36" t="n">
-        <v>2.92536717604105</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2.186927427873678</v>
+        <v>0.1130133992258675</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>0.2928339491397336</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>LREN3</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>1.846074140974872</v>
-      </c>
       <c r="C37" t="n">
-        <v>2.654101405130968</v>
-      </c>
-      <c r="D37" t="n">
-        <v>3.104649947429955</v>
+        <v>0.1638166646263973</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>0.1129178336393936</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>MRFG3</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>4.782674676655804</v>
-      </c>
       <c r="C38" t="n">
-        <v>5.279747469945973</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3.98681867154284</v>
+        <v>0.0589915949841477</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" t="n">
+        <v>0.1660288171071225</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>MRVE3</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0.983320639610174</v>
-      </c>
       <c r="C39" t="n">
-        <v>0.6170527127674781</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.6572751758985773</v>
+        <v>0.1786428095587447</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" t="n">
+        <v>0.2546320603781249</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>MULT3</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>1.887952890694722</v>
-      </c>
       <c r="C40" t="n">
-        <v>2.386786388633897</v>
-      </c>
-      <c r="D40" t="n">
-        <v>2.27866771097229</v>
+        <v>0.09984646422680425</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" t="n">
+        <v>0.1217986146529139</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>PETR3</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>1.622591282868581</v>
-      </c>
       <c r="C41" t="n">
-        <v>0.8253305489906698</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9207446499711551</v>
+        <v>0.09436786253213619</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" t="n">
+        <v>0.2221415392067658</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>PETR4</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>1.631520160775379</v>
-      </c>
       <c r="C42" t="n">
-        <v>1.194651320667789</v>
-      </c>
-      <c r="D42" t="n">
-        <v>1.964361408043386</v>
+        <v>0.1449601269955917</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" t="n">
+        <v>0.1343555266733613</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>RADL3</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>3.095163331142305</v>
-      </c>
       <c r="C43" t="n">
-        <v>4.226012866176698</v>
-      </c>
-      <c r="D43" t="n">
-        <v>2.393531133449692</v>
+        <v>0.030699207406376</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" t="n">
+        <v>0.341939860973878</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>RENT3</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>1.703293855312578</v>
-      </c>
       <c r="C44" t="n">
-        <v>1.353376506391118</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.567379690721634</v>
+        <v>0.1782213049754666</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" t="n">
+        <v>0.2146988775040732</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>SANB11</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>1.619621364312471</v>
-      </c>
       <c r="C45" t="n">
-        <v>1.501731146462528</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.528709913946886</v>
+        <v>0.1989213688530404</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" t="n">
+        <v>0.2106349923929024</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>SBSP3</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>25.80202430257449</v>
-      </c>
       <c r="C46" t="n">
-        <v>23.1307023388446</v>
-      </c>
-      <c r="D46" t="n">
-        <v>32.66830323764725</v>
+        <v>0.117111176289054</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" t="n">
+        <v>0.2317894499673803</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>TAEE11</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>3.485400239721554</v>
-      </c>
       <c r="C47" t="n">
-        <v>0.8991215359795927</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.9182328393201</v>
+        <v>0.1132975521890656</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" t="n">
+        <v>0.03648730104118125</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>TIMS3</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>2.282053064310553</v>
-      </c>
       <c r="C48" t="n">
-        <v>1.113624319080672</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.80326682902815</v>
+        <v>0.01421144735137899</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" t="n">
+        <v>0.2064098923260201</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>TOTS3</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>20.93960558125113</v>
-      </c>
       <c r="C49" t="n">
-        <v>16.4454485940426</v>
-      </c>
-      <c r="D49" t="n">
-        <v>15.26599127356414</v>
+        <v>0.1619022168136831</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" t="n">
+        <v>0.1596361879340043</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>UGPA3</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>1.861742389370224</v>
-      </c>
       <c r="C50" t="n">
-        <v>1.024867990101877</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.9475346522268819</v>
+        <v>0.05726852050340198</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" t="n">
+        <v>0.08630460683045266</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>USIM5</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>0.6754774766435401</v>
-      </c>
       <c r="C51" t="n">
-        <v>0.7337828928847955</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.027220513489989</v>
+        <v>0.06405032373916068</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" t="n">
+        <v>0.1402852986832847</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>VALE3</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>6.747307023148545</v>
-      </c>
       <c r="C52" t="n">
-        <v>3.102775232093873</v>
-      </c>
-      <c r="D52" t="n">
-        <v>7.867990015909712</v>
+        <v>0.1445275776321626</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" t="n">
+        <v>0.08581088459269653</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>VIVT3</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>391044236314398.2</v>
-      </c>
       <c r="C53" t="n">
-        <v>145772198153981.5</v>
-      </c>
-      <c r="D53" t="n">
-        <v>278747987715739.1</v>
+        <v>0.1624435753969956</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" t="n">
+        <v>0.1407003154787516</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>WEGE3</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>2.372254722189249</v>
-      </c>
       <c r="C54" t="n">
-        <v>2.052097201297899</v>
-      </c>
-      <c r="D54" t="n">
-        <v>2.805075763498589</v>
+        <v>0.04635748420450876</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" t="n">
+        <v>0.2336233069719443</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>YDUQ3</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>2.006967013518637</v>
-      </c>
       <c r="C55" t="n">
-        <v>1.97779316803571</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2.005358300037294</v>
+        <v>0.1288491562188759</v>
       </c>
     </row>
   </sheetData>
